--- a/published-data/fonds-solidarite/fds-2020-12-29/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-29/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>201039</v>
+        <v>201040</v>
       </c>
       <c r="D122" t="n">
-        <v>292929542</v>
+        <v>292930980</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -8324,10 +8324,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>327990</v>
+        <v>327989</v>
       </c>
       <c r="D210" t="n">
-        <v>472581653</v>
+        <v>472580215</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8780,10 +8780,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>50102</v>
+        <v>50103</v>
       </c>
       <c r="D222" t="n">
-        <v>114076087</v>
+        <v>114080303</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
